--- a/data/trans_bre/P20B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P20B-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-28.65048269847473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-32.12966126131083</v>
+        <v>-32.12966126131084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.5150958342248435</v>
@@ -649,7 +649,7 @@
         <v>-0.7891323403513197</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.7555298806891606</v>
+        <v>-0.7555298806891607</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-39.57477597014963</v>
+        <v>-40.77273124366566</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-31.58154501775009</v>
+        <v>-33.30612729470264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-51.39814920302796</v>
+        <v>-52.30135120044896</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-51.84001917685625</v>
+        <v>-52.27032394038577</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8912402767460602</v>
+        <v>-0.8988613143966319</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.705154384740255</v>
+        <v>-0.7223214103375154</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.9243568412787044</v>
+        <v>-0.916688978765413</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.36243237979333</v>
+        <v>8.357684022171886</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>24.13085073617878</v>
+        <v>22.69339782222864</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.251326253179044</v>
+        <v>-10.14663784631007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-14.51853625343728</v>
+        <v>-14.26571392982073</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.01796454236278</v>
+        <v>0.8430773266073098</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.577107168609388</v>
+        <v>1.943946856190983</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1272115237572957</v>
+        <v>-0.2329000945760549</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.4575745702529553</v>
+        <v>-0.3989210984524288</v>
       </c>
     </row>
     <row r="7">
@@ -760,26 +760,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-26.86124819965926</v>
+        <v>-29.42977195599854</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.11820631129594</v>
+        <v>-17.18033193515122</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-19.21389616920538</v>
+        <v>-20.08944193194017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-26.6601844703803</v>
+        <v>-27.62303465861383</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8749361619901386</v>
+        <v>-0.9166127078058679</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.6072638424489624</v>
+        <v>-0.6574809123402752</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5650276701350425</v>
+        <v>-0.5915544738355514</v>
       </c>
     </row>
     <row r="9">
@@ -790,24 +790,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.4075226102111</v>
+        <v>15.43077889504319</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>19.66323717999009</v>
+        <v>19.35506022365767</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31.34182731215147</v>
+        <v>28.09251758749792</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.92480043650366</v>
+        <v>18.45471623220142</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>5.869399116480564</v>
+        <v>4.356473611716831</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.038784437212335</v>
+        <v>1.071098437971902</v>
       </c>
     </row>
     <row r="10">
@@ -831,7 +831,7 @@
         <v>9.13147637483176</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-22.14417292000143</v>
+        <v>-22.14417292000141</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.5522097866348717</v>
@@ -843,7 +843,7 @@
         <v>0.268034596597424</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4631344427016288</v>
+        <v>-0.4631344427016286</v>
       </c>
     </row>
     <row r="11">
@@ -854,28 +854,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-46.51292214873373</v>
+        <v>-48.35766240103312</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-23.54232738795682</v>
+        <v>-24.20814322916792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-22.96246338579222</v>
+        <v>-24.55369386395849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-45.2002987117351</v>
+        <v>-47.6823719048197</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.8953795253757488</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6545077542210647</v>
+        <v>-0.6717516517473628</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5322505205147706</v>
+        <v>-0.5986933813086583</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7879610163896675</v>
+        <v>-0.8319088459016951</v>
       </c>
     </row>
     <row r="12">
@@ -886,28 +886,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.738270596404945</v>
+        <v>6.331375398747715</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.71820385164195</v>
+        <v>22.2855290584182</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42.57783354496422</v>
+        <v>40.57871606708872</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.894554327018115</v>
+        <v>2.89347112506566</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.526393793961921</v>
+        <v>0.4713721074905147</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.076939495246733</v>
+        <v>1.064218207649733</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.739650214198445</v>
+        <v>1.932466142244272</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0984869791182969</v>
+        <v>0.1241359956635731</v>
       </c>
     </row>
     <row r="13">
@@ -954,28 +954,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.967496963581</v>
+        <v>-17.92554715008841</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-25.90178963735212</v>
+        <v>-27.37044140199935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-36.56793037454367</v>
+        <v>-37.53775128204989</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-19.76803984574573</v>
+        <v>-19.82195927258137</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.583701650958253</v>
+        <v>-0.6153626676942026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6820029740305185</v>
+        <v>-0.6966311162072806</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7318060626510463</v>
+        <v>-0.7389606306518903</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6290962260932155</v>
+        <v>-0.6368640424612829</v>
       </c>
     </row>
     <row r="15">
@@ -986,28 +986,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.950253584227157</v>
+        <v>11.30213476782998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.526695960764401</v>
+        <v>1.244720091544777</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-3.397288248507466</v>
+        <v>-3.82940489618046</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.808663711185088</v>
+        <v>7.306846092758977</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6727935417105699</v>
+        <v>0.8659396301931576</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.130539209927286</v>
+        <v>0.07973869358971265</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.07254184639244116</v>
+        <v>-0.06606893282205123</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4889559941754177</v>
+        <v>0.5007254745325525</v>
       </c>
     </row>
     <row r="16">
@@ -1031,7 +1031,7 @@
         <v>2.94733974497744</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.543061800165374</v>
+        <v>1.543061800165385</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.270085060737086</v>
@@ -1043,7 +1043,7 @@
         <v>0.07906113583143072</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.04874560115854619</v>
+        <v>0.04874560115854654</v>
       </c>
     </row>
     <row r="17">
@@ -1054,28 +1054,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-34.11459715925233</v>
+        <v>-32.95526261686855</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-17.57034349106376</v>
+        <v>-18.92928470771741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-21.88842067987926</v>
+        <v>-22.79762929885517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.3126804667163</v>
+        <v>-16.83525642165629</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7236402195365055</v>
+        <v>-0.7070015891115717</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3963673786605824</v>
+        <v>-0.4011472635557476</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4469339961165975</v>
+        <v>-0.413030101442917</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3942987678087247</v>
+        <v>-0.4126114617399444</v>
       </c>
     </row>
     <row r="18">
@@ -1086,28 +1086,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.77466683493856</v>
+        <v>16.38629689506176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.88530445228238</v>
+        <v>19.58809326867043</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27.44045158766586</v>
+        <v>27.57581212553606</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.67301541149663</v>
+        <v>18.12808341129215</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.096380836949152</v>
+        <v>1.81440709027814</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8149651531747774</v>
+        <v>0.9074225569352944</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.386620992883619</v>
+        <v>1.227004475865976</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.8875004613985638</v>
+        <v>0.8051037402394279</v>
       </c>
     </row>
     <row r="19">
@@ -1143,7 +1143,7 @@
         <v>0.8169424851994403</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.018873589904231</v>
+        <v>1.018873589904232</v>
       </c>
     </row>
     <row r="20">
@@ -1154,20 +1154,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-74.16565135905392</v>
+        <v>-75.91220255690888</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-52.85785012770187</v>
+        <v>-52.89564404121423</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-26.47098421048402</v>
+        <v>-31.31062252204262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-33.18231509619648</v>
+        <v>-31.83859189343445</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.7234282332728179</v>
+        <v>-0.7369090272736539</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="inlineStr"/>
@@ -1180,20 +1180,20 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>31.69998430028843</v>
+        <v>29.46350618753707</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.11143151717623</v>
+        <v>16.7701636296472</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27.30251075919589</v>
+        <v>25.99361399761073</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>35.05653795199922</v>
+        <v>35.91089829337452</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>1.268132026451388</v>
+        <v>1.292681130853015</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
@@ -1219,7 +1219,7 @@
         <v>-9.341899917322493</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-10.22869207207955</v>
+        <v>-10.22869207207954</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2305039587340064</v>
@@ -1231,7 +1231,7 @@
         <v>-0.2772256687575638</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.3065240780840122</v>
+        <v>-0.3065240780840119</v>
       </c>
     </row>
     <row r="23">
@@ -1242,28 +1242,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-14.10563370060653</v>
+        <v>-14.98989302698247</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.41901523463678</v>
+        <v>-13.65830879388856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.46187650657059</v>
+        <v>-18.9195461323189</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-18.17587562098356</v>
+        <v>-17.40991560868501</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.45185792190783</v>
+        <v>-0.4764757488269451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3852060286969508</v>
+        <v>-0.4010535163662115</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.466230473630996</v>
+        <v>-0.4774547229531264</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.4809079223270868</v>
+        <v>-0.4617294740764939</v>
       </c>
     </row>
     <row r="24">
@@ -1274,28 +1274,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.870078310529214</v>
+        <v>2.429504340701693</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.069961981280269</v>
+        <v>3.225609308695113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1692074933276928</v>
+        <v>-0.04823182913264846</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.190694909272858</v>
+        <v>-1.513063429760169</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1295097181006492</v>
+        <v>0.1282796839329437</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1303615212343565</v>
+        <v>0.121782785089148</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004880802274638946</v>
+        <v>0.003192302351711744</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.06644061086396004</v>
+        <v>-0.05158587465616632</v>
       </c>
     </row>
     <row r="25">
